--- a/Projects/Dosed Yolk hormones/Thyroid hormone/delicata_yolk_hormone_thyroid.xlsx
+++ b/Projects/Dosed Yolk hormones/Thyroid hormone/delicata_yolk_hormone_thyroid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1115575\Documents\lampro_cort_temp\Projects\Dosed Yolk hormones\Thyroid hormone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54D9F6D2-9537-4F2E-8952-481872C9E64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720CF7B3-B267-4931-A7AB-01FBFA4530BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1230" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T4" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,30 @@
     <sheet name="T4 Assay stats" sheetId="4" r:id="rId3"/>
     <sheet name="T3" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={F7DCB01C-D7D4-4996-95F3-D812514AC101}</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -628,8 +641,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,12 +776,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1515,11 +1522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
@@ -3712,7 +3719,7 @@
         <v>0.48699999999999999</v>
       </c>
       <c r="O45">
-        <f>I45/50</f>
+        <f t="shared" ref="O45:O51" si="12">I45/50</f>
         <v>0.87292000000000003</v>
       </c>
       <c r="P45">
@@ -3765,7 +3772,7 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="O46">
-        <f>I46/50</f>
+        <f t="shared" si="12"/>
         <v>0.74602000000000002</v>
       </c>
       <c r="P46">
@@ -3821,7 +3828,7 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="O47">
-        <f>I47/50</f>
+        <f t="shared" si="12"/>
         <v>0.54298000000000002</v>
       </c>
       <c r="P47">
@@ -3874,7 +3881,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="O48">
-        <f>I48/50</f>
+        <f t="shared" si="12"/>
         <v>0.64773999999999998</v>
       </c>
       <c r="P48">
@@ -3927,7 +3934,7 @@
         <v>0.59799999999999998</v>
       </c>
       <c r="O49">
-        <f>I49/50</f>
+        <f t="shared" si="12"/>
         <v>0.88517999999999997</v>
       </c>
       <c r="P49">
@@ -3980,7 +3987,7 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="O50">
-        <f>I50/50</f>
+        <f t="shared" si="12"/>
         <v>1.2095</v>
       </c>
       <c r="P50">
@@ -4033,7 +4040,7 @@
         <v>0.65800000000000003</v>
       </c>
       <c r="O51">
-        <f>I51/50</f>
+        <f t="shared" si="12"/>
         <v>0.84382000000000001</v>
       </c>
       <c r="P51">
@@ -4129,7 +4136,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="O53">
-        <f>I53/50</f>
+        <f t="shared" ref="O53:O60" si="13">I53/50</f>
         <v>0.55327999999999999</v>
       </c>
       <c r="P53">
@@ -4182,7 +4189,7 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="O54">
-        <f>I54/50</f>
+        <f t="shared" si="13"/>
         <v>0.61584000000000005</v>
       </c>
       <c r="P54">
@@ -4235,7 +4242,7 @@
         <v>0.108</v>
       </c>
       <c r="O55">
-        <f>I55/50</f>
+        <f t="shared" si="13"/>
         <v>1.1352800000000001</v>
       </c>
       <c r="P55">
@@ -4288,7 +4295,7 @@
         <v>0.151</v>
       </c>
       <c r="O56">
-        <f>I56/50</f>
+        <f t="shared" si="13"/>
         <v>0.80468000000000006</v>
       </c>
       <c r="P56">
@@ -4341,7 +4348,7 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="O57">
-        <f>I57/50</f>
+        <f t="shared" si="13"/>
         <v>0.75178</v>
       </c>
       <c r="P57">
@@ -4394,7 +4401,7 @@
         <v>0.19800000000000001</v>
       </c>
       <c r="O58">
-        <f>I58/50</f>
+        <f t="shared" si="13"/>
         <v>0.59697999999999996</v>
       </c>
       <c r="P58">
@@ -4447,7 +4454,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="O59">
-        <f>I59/50</f>
+        <f t="shared" si="13"/>
         <v>1.07284</v>
       </c>
       <c r="P59">
@@ -4500,7 +4507,7 @@
         <v>1.3919999999999999</v>
       </c>
       <c r="O60">
-        <f>I60/50</f>
+        <f t="shared" si="13"/>
         <v>0.66134000000000004</v>
       </c>
       <c r="P60">
@@ -4522,11 +4529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4573,12 +4580,12 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <f>(B2+C2)/D2</f>
-        <v>0.41400000000000003</v>
+        <f>(B2+C2)/20</f>
+        <v>0.20700000000000002</v>
       </c>
       <c r="H2" s="5">
         <f>AVERAGE(E2:E4,E6)</f>
-        <v>0.39570000000000005</v>
+        <v>0.19785000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4595,8 +4602,8 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f>(B3+C3)/D3</f>
-        <v>0.28220000000000001</v>
+        <f>(B3+C3)/10</f>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4613,8 +4620,8 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f>(B4+C4)/D4</f>
-        <v>0.27460000000000001</v>
+        <f>(B4+C4)/10</f>
+        <v>0.13730000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -4639,8 +4646,8 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <f>(B6+C6)/D6</f>
-        <v>0.61199999999999999</v>
+        <f>(B6+C6)/10</f>
+        <v>0.30599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4649,7 +4656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4741,7 +4748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
